--- a/导表工具/N-npc.xlsx
+++ b/导表工具/N-npc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" tabRatio="555"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="555"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>导出类型</t>
   </si>
@@ -255,7 +255,7 @@
     <t>"70007"</t>
   </si>
   <si>
-    <t>"zjmyzbq"</t>
+    <t>"new_zjmxuezhan"</t>
   </si>
   <si>
     <t>"npc_xzbq"</t>
@@ -273,7 +273,7 @@
     <t>"70009"</t>
   </si>
   <si>
-    <t>"zjmjqpd"</t>
+    <t>"new_zjmjiqingpaodian"</t>
   </si>
   <si>
     <t>"npc_jqpd"</t>
@@ -314,12 +314,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,8 +378,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +394,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -401,9 +410,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,10 +439,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,30 +456,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,38 +472,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,26 +491,59 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -573,61 +584,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,121 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,15 +841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -850,6 +852,33 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,21 +898,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -891,15 +905,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,11 +924,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,160 +944,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,7 +1251,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1493,10 +1504,10 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="8.875" customWidth="1"/>
